--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Salvin's Albatross_The Snares.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Salvin's Albatross_The Snares.xlsx
@@ -4247,13 +4247,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641A01D1-8D48-4200-A9D9-4BA07DA7FD63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56F9EEF3-A155-4D27-A58E-B6181BEE589D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0DA686-970E-4F72-A613-08D679C066D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B89A6A-78D3-4C28-87E1-2DD579380464}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D33BE1-7CD5-48A9-8F20-9ECB53C57A1F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DB4C17A-BE5A-4572-87F4-C746A0F47366}"/>
 </file>